--- a/Data/EC/NIT-9016128319.xlsx
+++ b/Data/EC/NIT-9016128319.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AFD6327-8DCB-4BBD-8705-8A81755B0F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EFBD500-CCA5-497B-89B3-F836EEE95744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA124510-287C-43FE-AF4D-010DBC44A73B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{173D3CDD-50D0-44AA-A9D3-9221462B5707}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,37 +65,37 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1007048317</t>
+  </si>
+  <si>
+    <t>MARCO POLO HERRERA BERMEJO</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>1143390341</t>
   </si>
   <si>
     <t>DANIEL CAMILO CASTRO REALES</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>1007048317</t>
-  </si>
-  <si>
-    <t>MARCO POLO HERRERA BERMEJO</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986F14CD-54D4-A36F-3778-4904C167C1B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8D31A1-B00A-54B0-2AFB-ED9CCDDEBBA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA224F0-FEF2-453D-90A5-B17DB487AB63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198B1B91-4FCF-4540-AE32-F4720AEE2B6C}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G16" s="18">
         <v>1500000</v>
@@ -1052,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>60000</v>
@@ -1081,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>60000</v>
@@ -1098,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1144,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>60000</v>
@@ -1167,13 +1167,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>60000</v>
@@ -1190,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G23" s="18">
         <v>1500000</v>
@@ -1213,13 +1213,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
@@ -1236,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
@@ -1259,13 +1259,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>60000</v>
@@ -1282,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>60000</v>
@@ -1305,16 +1305,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G28" s="18">
         <v>1500000</v>
@@ -1328,16 +1328,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="24">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G29" s="24">
         <v>1500000</v>

--- a/Data/EC/NIT-9016128319.xlsx
+++ b/Data/EC/NIT-9016128319.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EFBD500-CCA5-497B-89B3-F836EEE95744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3750F1F1-54DA-419F-BAD6-C5EC8BE9AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{173D3CDD-50D0-44AA-A9D3-9221462B5707}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{42DA415C-B93B-497F-841D-E4DB90B3CAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,31 +71,31 @@
     <t>MARCO POLO HERRERA BERMEJO</t>
   </si>
   <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1143390341</t>
+  </si>
+  <si>
+    <t>DANIEL CAMILO CASTRO REALES</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>1143390341</t>
-  </si>
-  <si>
-    <t>DANIEL CAMILO CASTRO REALES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,7 +194,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -207,9 +209,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8D31A1-B00A-54B0-2AFB-ED9CCDDEBBA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3506C2FB-43DB-C4B6-EF7E-2BF96DFAD974}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198B1B91-4FCF-4540-AE32-F4720AEE2B6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C2DBBD-8C20-4D66-AF57-BF5B27101D84}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
         <v>1500000</v>
@@ -1052,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>60000</v>
@@ -1081,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>60000</v>
@@ -1098,10 +1098,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1144,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>60000</v>
@@ -1173,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>60000</v>
@@ -1190,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>54000</v>
+        <v>60000</v>
       </c>
       <c r="G23" s="18">
         <v>1500000</v>
@@ -1213,13 +1213,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>60000</v>
@@ -1236,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>60000</v>
@@ -1259,13 +1259,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>60000</v>
@@ -1282,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>60000</v>
@@ -1305,16 +1305,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F28" s="18">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G28" s="18">
         <v>1500000</v>
@@ -1328,16 +1328,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F29" s="24">
-        <v>60000</v>
+        <v>54000</v>
       </c>
       <c r="G29" s="24">
         <v>1500000</v>
